--- a/case-id/forms/app/register_case.xlsx
+++ b/case-id/forms/app/register_case.xlsx
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -277,15 +277,18 @@
     <t xml:space="preserve">field-list</t>
   </si>
   <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
     <t xml:space="preserve">hidden</t>
   </si>
   <si>
-    <t xml:space="preserve">source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
     <t xml:space="preserve">user</t>
   </si>
   <si>
@@ -299,9 +302,6 @@
   </si>
   <si>
     <t xml:space="preserve">Contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
   </si>
   <si>
     <t xml:space="preserve">_id</t>
@@ -851,7 +851,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -924,8 +924,11 @@
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -933,10 +936,13 @@
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -944,15 +950,15 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>23</v>
@@ -977,13 +983,16 @@
       <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1164,7 +1173,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
-        <v>20250213155632</v>
+        <v>20250213162705</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>41</v>

--- a/case-id/forms/app/register_case.xlsx
+++ b/case-id/forms/app/register_case.xlsx
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -290,12 +290,6 @@
   </si>
   <si>
     <t xml:space="preserve">user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source ID</t>
   </si>
   <si>
     <t xml:space="preserve">contact</t>
@@ -844,14 +838,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -933,7 +927,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -941,19 +935,22 @@
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -961,82 +958,65 @@
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="4"/>
+      <c r="D15" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H2:I10000 A27:B27 A2:C26 D2:F13 A28:F10000 D17:F27 E14:F16">
+  <conditionalFormatting sqref="H2:I9999 A26:B26 A5:C25 D5:F12 A27:F9999 D16:F26 E13:F15 A2:F4">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$A2="begin_group"</formula>
     </cfRule>
@@ -1053,44 +1033,44 @@
       <formula>AND(ISBLANK($A2), NOT(ISBLANK(A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B10000">
+  <conditionalFormatting sqref="B2:B9999">
     <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND(ISBLANK(B2), NOT(ISBLANK($A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C10000 C2:C26">
+  <conditionalFormatting sqref="C27:C9999 C2:C25">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate")))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H10000">
+  <conditionalFormatting sqref="H2:H9999">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A2="calculate", ISBLANK(H2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
+  <conditionalFormatting sqref="C26">
     <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$A27="begin_group"</formula>
+      <formula>$A26="begin_group"</formula>
     </cfRule>
     <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$A27="end_group"</formula>
+      <formula>$A26="end_group"</formula>
     </cfRule>
     <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>$A27="begin_repeat"</formula>
+      <formula>$A26="begin_repeat"</formula>
     </cfRule>
     <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>$A27="end_repeat"</formula>
+      <formula>$A26="end_repeat"</formula>
     </cfRule>
     <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK($A27), NOT(ISBLANK(C27)))</formula>
+      <formula>AND(ISBLANK($A26), NOT(ISBLANK(C26)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
+  <conditionalFormatting sqref="C26">
     <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(C27),NOT(OR(ISBLANK($A27),$A27="calculate")))</formula>
+      <formula>AND(ISBLANK(C26),NOT(OR(ISBLANK($A26),$A26="calculate")))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G10000">
+  <conditionalFormatting sqref="G2:G9999">
     <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$A2="begin_group"</formula>
     </cfRule>
@@ -1112,7 +1092,7 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="If configuring a select, ensure your list name matches a list from the choices sheet." errorStyle="information" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A2:A1015" type="list">
+    <dataValidation allowBlank="true" error="If configuring a select, ensure your list name matches a list from the choices sheet." errorStyle="information" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A2:A1014" type="list">
       <formula1>"begin_group,end_group,note,calculate,text,integer,decimal,select_one list_name,select_multiple list_name,date,time,datetime,begin_repeat,end_repeat,geopoint,geotrace,geoshape,start-geopoint,range,image,audio,video,file,rank,acknowledge,start,end,today"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1149,37 +1129,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="7" t="str">
         <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
-        <v>20250213162705</v>
+        <v>20250214130852</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/case-id/forms/app/register_case.xlsx
+++ b/case-id/forms/app/register_case.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -266,9 +266,6 @@
   </si>
   <si>
     <t xml:space="preserve">inputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO_LABEL</t>
   </si>
   <si>
     <t xml:space="preserve">./source = 'user'</t>
@@ -845,7 +842,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -898,31 +895,28 @@
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -930,54 +924,54 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -985,16 +979,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1002,10 +993,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="D13" s="4"/>
     </row>
@@ -1016,7 +1007,7 @@
       <c r="D15" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H2:I9999 A26:B26 A5:C25 D5:F12 A27:F9999 D16:F26 E13:F15 A2:F4">
+  <conditionalFormatting sqref="H2:I9999 A26:B26 A5:C25 D5:F12 A27:F9999 D16:F26 E13:F15 A2:F4 C26 G2:G9999">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$A2="begin_group"</formula>
     </cfRule>
@@ -1038,7 +1029,7 @@
       <formula>AND(ISBLANK(B2), NOT(ISBLANK($A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C9999 C2:C25">
+  <conditionalFormatting sqref="C27:C9999 C2:C25 C26">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate")))</formula>
     </cfRule>
@@ -1046,45 +1037,6 @@
   <conditionalFormatting sqref="H2:H9999">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A2="calculate", ISBLANK(H2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$A26="begin_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$A26="end_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>$A26="begin_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>$A26="end_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK($A26), NOT(ISBLANK(C26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(C26),NOT(OR(ISBLANK($A26),$A26="calculate")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G9999">
-    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$A2="begin_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$A2="end_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>$A2="begin_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>$A2="end_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK($A2), NOT(ISBLANK(G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -1129,37 +1081,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="C2" s="7" t="str">
         <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
-        <v>20250214130852</v>
+        <v>20251119134838</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/case-id/forms/app/register_case.xlsx
+++ b/case-id/forms/app/register_case.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -185,38 +185,24 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">The unique ID that identifies this form to tools that use it. It may not contain spaces and must start with a letter or underscore. You should use a short, descriptive name and can use underscores to separate words. 
-For example: bench_inventory_2021
-You can change the form_title as much as you would like but if you change the form_id, it will be considered a different form definition.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
           <t xml:space="preserve">The unique version code that identifies the current state of the form. A common convention is to use a format like yyyymmddrr. For example, 2017021501 is the 1st revision from Feb 15th, 2017.
 By default, this template uses a formula to create a date-based version that will update automatically.</t>
         </r>
       </text>
     </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Set to ‘pages’ to indicate that groups with the `field-list` appearance represent separate form pages (and all other questions will be shown on their own page). </t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Set to ‘pages’ to indicate that groups with the `field-list` appearance represent separate form pages (and all other questions will be shown on their own page). </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -233,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -331,9 +317,6 @@
     <t xml:space="preserve">form_title</t>
   </si>
   <si>
-    <t xml:space="preserve">form_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">version</t>
   </si>
   <si>
@@ -344,9 +327,6 @@
   </si>
   <si>
     <t xml:space="preserve">Register Case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">register_case</t>
   </si>
   <si>
     <t xml:space="preserve">pages</t>
@@ -1007,7 +987,7 @@
       <c r="D15" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H2:I9999 A26:B26 A5:C25 D5:F12 A27:F9999 D16:F26 E13:F15 A2:F4 C26 G2:G9999">
+  <conditionalFormatting sqref="G2:I9999 A5:C26 D5:F12 A27:F9999 D16:F26 E13:F15 A2:F4">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$A2="begin_group"</formula>
     </cfRule>
@@ -1029,7 +1009,7 @@
       <formula>AND(ISBLANK(B2), NOT(ISBLANK($A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C9999 C2:C25 C26">
+  <conditionalFormatting sqref="C2:C9999">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate")))</formula>
     </cfRule>
@@ -1065,18 +1045,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="17.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="16.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="16.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="32.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="32.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1092,26 +1071,20 @@
       <c r="D1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="7" t="str">
+        <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
+        <v>20260114092701</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="C2" s="7" t="str">
-        <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
-        <v>20251119134838</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/case-id/forms/app/register_case.xlsx
+++ b/case-id/forms/app/register_case.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -185,38 +185,24 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">The unique ID that identifies this form to tools that use it. It may not contain spaces and must start with a letter or underscore. You should use a short, descriptive name and can use underscores to separate words. 
-For example: bench_inventory_2021
-You can change the form_title as much as you would like but if you change the form_id, it will be considered a different form definition.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
           <t xml:space="preserve">The unique version code that identifies the current state of the form. A common convention is to use a format like yyyymmddrr. For example, 2017021501 is the 1st revision from Feb 15th, 2017.
 By default, this template uses a formula to create a date-based version that will update automatically.</t>
         </r>
       </text>
     </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Set to ‘pages’ to indicate that groups with the `field-list` appearance represent separate form pages (and all other questions will be shown on their own page). </t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Set to ‘pages’ to indicate that groups with the `field-list` appearance represent separate form pages (and all other questions will be shown on their own page). </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -233,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -268,9 +254,6 @@
     <t xml:space="preserve">inputs</t>
   </si>
   <si>
-    <t xml:space="preserve">NO_LABEL</t>
-  </si>
-  <si>
     <t xml:space="preserve">./source = 'user'</t>
   </si>
   <si>
@@ -334,9 +317,6 @@
     <t xml:space="preserve">form_title</t>
   </si>
   <si>
-    <t xml:space="preserve">form_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">version</t>
   </si>
   <si>
@@ -347,9 +327,6 @@
   </si>
   <si>
     <t xml:space="preserve">Register Case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">register_case</t>
   </si>
   <si>
     <t xml:space="preserve">pages</t>
@@ -845,7 +822,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -898,31 +875,28 @@
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -930,54 +904,54 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -985,16 +959,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1002,10 +973,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="D13" s="4"/>
     </row>
@@ -1016,7 +987,7 @@
       <c r="D15" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H2:I9999 A26:B26 A5:C25 D5:F12 A27:F9999 D16:F26 E13:F15 A2:F4">
+  <conditionalFormatting sqref="G2:I9999 A5:C26 D5:F12 A27:F9999 D16:F26 E13:F15 A2:F4">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$A2="begin_group"</formula>
     </cfRule>
@@ -1038,7 +1009,7 @@
       <formula>AND(ISBLANK(B2), NOT(ISBLANK($A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C9999 C2:C25">
+  <conditionalFormatting sqref="C2:C9999">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate")))</formula>
     </cfRule>
@@ -1046,45 +1017,6 @@
   <conditionalFormatting sqref="H2:H9999">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A2="calculate", ISBLANK(H2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$A26="begin_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$A26="end_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>$A26="begin_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>$A26="end_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK($A26), NOT(ISBLANK(C26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(C26),NOT(OR(ISBLANK($A26),$A26="calculate")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G9999">
-    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$A2="begin_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$A2="end_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>$A2="begin_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>$A2="end_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK($A2), NOT(ISBLANK(G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -1113,53 +1045,46 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="17.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="16.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="16.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="32.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="32.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="7" t="str">
+        <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
+        <v>20260114092701</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="7" t="str">
-        <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
-        <v>20250214130852</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
